--- a/FIDS_vlookup.xlsx
+++ b/FIDS_vlookup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code Project\Learn Python\Print_Maintainform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_Maintainform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92AA1F-5CE4-48BE-9628-2C41458BC2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2026AA08-16AA-4E83-BFDA-C1F084712A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{6B37AC2D-A76A-4EA3-8CE1-5184216E1B6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B37AC2D-A76A-4EA3-8CE1-5184216E1B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Tên trang thiết bị</t>
   </si>
@@ -186,6 +186,196 @@
   </si>
   <si>
     <t>Mã trang thiết bị new</t>
+  </si>
+  <si>
+    <t>KG-VIPA-FIDS-VIPA</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-CHECKIN-A01-A08</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-CHECKIN-A09-A16</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-CHECKIN-A17-A24</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-CHECKIN-A25-A32</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-CHECKIN-B01-B08</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-CHECKIN-B09-B16</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-CHECKIN-B17-B24</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-CHECKIN-B25-B32</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-1-BĂNG-TẢI-ĐẾN-SÂN-ĐỖ</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-1-BĂNG-TẢI-ĐI-SÂN-ĐỖ</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-1-CÁCH-LY</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-1-CÔNG-CỘNG</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-2-BÊN-NGOÀI &amp; CÔNG-CỘNG-A-B</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-2-BOARDING-GATE-01-04</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-2-BOARDING-GATE-05-08</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-2-BOARDING-GATE-09-12</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-2-CÁCH-LY-A-B-D</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-2-KHU-C-XÁC-THỰC-HÀNH-KHÁCH</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-3-4-CÔNG-CỘNG-CÁCH-LY</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-TẦNG-LỬNG</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2PACKxx (01 -&gt; 08)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2PACKxx (09 -&gt; 16)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2PACKxx (17 -&gt; 24)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2PACKxx (25 -&gt; 32)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2PBCKxx (01 -&gt; 08)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2PBCKxx (09 -&gt; 16)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2PBCKxx (17 -&gt; 24)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2PBCKxx (25 -&gt; 32)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD1AOxx (01 -&gt; 03)
+KG-T1-FIDS-MOR-FD1BOxx (01 -&gt; 03)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD1DOxx (01 -&gt; 06)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD1ARxx (01 -&gt; 03)
+KG-T1-FIDS-MOR-FD1BRxx (01 -&gt; 03)
+KG-T1-FIDS-MOR-FD1CRxx (01 -&gt; 02)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD1APxx (01 -&gt; 04)
+KG-T1-FIDS-MOR-FD1BPxx (01 -&gt; 04)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2APxx (01 -&gt; 03)
+KG-T1-FIDS-MOR-FD2BPxx (01 -&gt; 03)
+KG-T1-FIDS-MOR-FDCPxx (03 -&gt; 04)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2GTxxx (01A -&gt; 04A, 01B -&gt; 04B)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2GTxxx (05A -&gt; 08A, 05B -&gt; 08B)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2GTxxx (09A -&gt; 12A, 09B -&gt; 12B)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2AR01
+KG-T1-FIDS-MOR-FD2BR01
+KG-T1-FIDS-MOR-FD2DRxx (01 -&gt; 04)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD2CPxx (01 -&gt; 02)
+KG-T1-FIDS-MOR-FD2CRxx (01 -&gt; 06)</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FD3CP01
+KG-T1-FIDS-MOR-FD3DRxx (01 -&gt; 02)
+KG-T1-FIDS-MOR-FD4CP01</t>
+  </si>
+  <si>
+    <t>KG-T1-FIDS-MOR-FDLCRxx (01 -&gt; 06)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-CHECKIN-E01-E06</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-CHECKIN-E07-E12</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-CHECKIN-E13-E16</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-CHECKIN-E21-E26</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-CHECKIN-E27-E32</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-CHECKIN-E31-E38</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-TẦNG-1-CÁCH-LY-BĂNG-TẢI-SẢNH-E</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-TẦNG-2-BOARDING-GATE &amp; CÁCH-LY-SẢNH-E</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2PECKxx (01 -&gt; 06)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2PECKxx (07 -&gt; 12)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2PECKxx (13 -&gt; 16)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2PECKxx (21 -&gt; 26)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2PECKxx (27 -&gt; 32)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2PECKxx (31 -&gt; 38)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD1EOxx (01 -&gt; 04)
+KG-T1E-FIDS-MOR-FD1BELTx (7 -&gt; 8)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2GTxxx (1A -&gt; 17A, 13B -&gt; 17B)
+KG-T1E-FIDS-MOR-FD2RExx (01 -&gt; 03)</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-TẦNG-1-2-CÔNG-CỘNG-SẢNH-E</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2EPxx</t>
   </si>
 </sst>
 </file>
@@ -563,19 +753,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA755DCA-075F-4DFB-BB3B-D78C26BD5F39}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -591,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -599,7 +789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -607,7 +797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -615,7 +805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -623,7 +813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -631,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -639,7 +829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -647,7 +837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -655,7 +845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -663,7 +853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -671,7 +861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -679,7 +869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -687,7 +877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -695,7 +885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -703,7 +893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -711,7 +901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -719,7 +909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -727,7 +917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -735,7 +925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -743,7 +933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -751,7 +941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -759,12 +949,252 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/FIDS_vlookup.xlsx
+++ b/FIDS_vlookup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_Maintainform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_MaintainDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2026AA08-16AA-4E83-BFDA-C1F084712A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A9189B-7EDE-42CF-93D8-8F4BE822CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B37AC2D-A76A-4EA3-8CE1-5184216E1B6A}"/>
   </bookViews>
@@ -337,9 +337,6 @@
     <t>KG-T1E-FIDS-CHECKIN-E27-E32</t>
   </si>
   <si>
-    <t>KG-T1E-FIDS-CHECKIN-E31-E38</t>
-  </si>
-  <si>
     <t>KG-T1E-FIDS-TẦNG-1-CÁCH-LY-BĂNG-TẢI-SẢNH-E</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
   </si>
   <si>
     <t>KG-T1E-FIDS-MOR-FD2PECKxx (27 -&gt; 32)</t>
-  </si>
-  <si>
-    <t>KG-T1E-FIDS-MOR-FD2PECKxx (31 -&gt; 38)</t>
   </si>
   <si>
     <t>KG-T1E-FIDS-MOR-FD1EOxx (01 -&gt; 04)
@@ -376,6 +370,12 @@
   </si>
   <si>
     <t>KG-T1E-FIDS-MOR-FD2EPxx</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-CHECKIN-E33-E38</t>
+  </si>
+  <si>
+    <t>KG-T1E-FIDS-MOR-FD2PECKxx (33 -&gt; 38)</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1130,7 @@
         <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
         <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1162,39 +1162,39 @@
         <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
